--- a/src/test/resources/004 One-team-one-pproject-with-overflow.xlsx
+++ b/src/test/resources/004 One-team-one-pproject-with-overflow.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ProjektPortfolio\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="20625" windowHeight="8340"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -75,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,13 +115,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -393,11 +401,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -936,7 +944,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -948,7 +956,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/004 One-team-one-pproject-with-overflow.xlsx
+++ b/src/test/resources/004 One-team-one-pproject-with-overflow.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ProjektPortfolio\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="20625" windowHeight="8340"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -80,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,16 +110,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -401,11 +393,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -944,7 +936,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -956,7 +948,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
